--- a/Data and graphs/Supplementary_data.xlsx
+++ b/Data and graphs/Supplementary_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm.violaine\Desktop\Data and graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95ABC78-12B7-42B7-8316-ABD5375C4384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E885D7CC-9143-42D0-A5D1-200BCC61A151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" activeTab="2" xr2:uid="{D4E008FA-DBD0-4296-AC24-736C4D9B5F03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" firstSheet="6" activeTab="6" xr2:uid="{D4E008FA-DBD0-4296-AC24-736C4D9B5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="500vs2000" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="Seasonal_ancestral" sheetId="3" r:id="rId4"/>
     <sheet name="Season_low_competition" sheetId="5" r:id="rId5"/>
     <sheet name="Season_high_competition" sheetId="4" r:id="rId6"/>
+    <sheet name="Base_G" sheetId="8" r:id="rId7"/>
+    <sheet name="Thresh_G" sheetId="9" r:id="rId8"/>
+    <sheet name="Comparison_G" sheetId="10" r:id="rId9"/>
+    <sheet name="Dltc_popsize" sheetId="11" r:id="rId10"/>
+    <sheet name="Mu" sheetId="12" r:id="rId11"/>
+    <sheet name="Single_G" sheetId="13" r:id="rId12"/>
+    <sheet name="Co_evo_G" sheetId="14" r:id="rId13"/>
+    <sheet name="Sex_G" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="81">
   <si>
     <t>Bimodal</t>
   </si>
   <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>Early</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -135,12 +137,159 @@
   </si>
   <si>
     <t>Gymax</t>
+  </si>
+  <si>
+    <t>Delayed-dawn</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>Extinction</t>
+  </si>
+  <si>
+    <t>std_percent</t>
+  </si>
+  <si>
+    <t>Fst</t>
+  </si>
+  <si>
+    <t>sd_fst</t>
+  </si>
+  <si>
+    <t>distance_peaks</t>
+  </si>
+  <si>
+    <t>sd_dist</t>
+  </si>
+  <si>
+    <t>width_peaks</t>
+  </si>
+  <si>
+    <t>sd_width</t>
+  </si>
+  <si>
+    <t>generation_time</t>
+  </si>
+  <si>
+    <t>sd_generation</t>
+  </si>
+  <si>
+    <t>linkage_percent</t>
+  </si>
+  <si>
+    <t>sd_link_p</t>
+  </si>
+  <si>
+    <t>linkage_number</t>
+  </si>
+  <si>
+    <t>sd_link_n</t>
+  </si>
+  <si>
+    <t>Delayed-dusk</t>
+  </si>
+  <si>
+    <t>Single Loci</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>survival_sd</t>
+  </si>
+  <si>
+    <t>survival_time</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>sd_E</t>
+  </si>
+  <si>
+    <t>popsize_E</t>
+  </si>
+  <si>
+    <t>sd_A</t>
+  </si>
+  <si>
+    <t>popsize_A</t>
+  </si>
+  <si>
+    <t>fst_sd</t>
+  </si>
+  <si>
+    <t>sd_d</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>sd_w</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>peak_type</t>
+  </si>
+  <si>
+    <t>std_peaks</t>
+  </si>
+  <si>
+    <t>peaks</t>
+  </si>
+  <si>
+    <t>w_std</t>
+  </si>
+  <si>
+    <t>peak_width</t>
+  </si>
+  <si>
+    <t>p_std</t>
+  </si>
+  <si>
+    <t>peaks_dist</t>
+  </si>
+  <si>
+    <t>bimo</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>width_type</t>
+  </si>
+  <si>
+    <t>std_w</t>
+  </si>
+  <si>
+    <t>these lower $G$ values also increased the average number of loci exhibiting linkage disequilibrium (4.3 loci for $G$ = 0.2, to 1.6 loci if $G$ = 1, Figure S14B). This is expected, as stricter genetic compatibility thresholds between individuals favor the selection and fixation of more alleles within sub-populations, so that reproduction between individuals is not hindered.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,9 +325,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,27 +645,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B262F0-8572-41DB-AF19-E3E0F7D30D59}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,10 +826,10 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -693,10 +843,10 @@
         <v>0.2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -710,10 +860,10 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -730,7 +880,7 @@
         <v>0.17</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>3.8</v>
@@ -747,7 +897,7 @@
         <v>0.17</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>3.8</v>
@@ -764,7 +914,7 @@
         <v>0.45</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -781,7 +931,7 @@
         <v>0.71</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>4.5</v>
@@ -798,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -815,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -829,10 +979,10 @@
         <v>0.1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -846,10 +996,10 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -863,13 +1013,13 @@
         <v>0.3</v>
       </c>
       <c r="B22">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>2000</v>
@@ -883,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -900,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -917,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -934,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -951,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -968,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -982,10 +1132,10 @@
         <v>0.1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -999,10 +1149,10 @@
         <v>0.2</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1016,13 +1166,13 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -1036,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1053,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1070,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1087,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1104,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1121,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1135,10 +1285,10 @@
         <v>0.1</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1152,10 +1302,10 @@
         <v>0.2</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1169,10 +1319,10 @@
         <v>0.3</v>
       </c>
       <c r="B40">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1189,7 +1339,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1206,7 +1356,7 @@
         <v>0.15</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <v>3.5</v>
@@ -1223,7 +1373,7 @@
         <v>0.61</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>4.9000000000000004</v>
@@ -1240,7 +1390,7 @@
         <v>0.68</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D44">
         <v>4.7</v>
@@ -1257,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1274,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1434,6 +1584,1715 @@
       </c>
       <c r="E55">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C12DE09-5468-4629-B433-EDD75DEBD377}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2134.13</v>
+      </c>
+      <c r="C2">
+        <v>114.65</v>
+      </c>
+      <c r="D2">
+        <v>350.79</v>
+      </c>
+      <c r="E2">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="F2">
+        <f>B2/D2</f>
+        <v>6.0837823199064971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>938.73</v>
+      </c>
+      <c r="C3">
+        <v>87.92</v>
+      </c>
+      <c r="D3">
+        <v>149.22</v>
+      </c>
+      <c r="E3">
+        <v>32.21</v>
+      </c>
+      <c r="F3">
+        <f>B3/D3</f>
+        <v>6.29091274628066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>932.33</v>
+      </c>
+      <c r="C4">
+        <v>61.72</v>
+      </c>
+      <c r="D4">
+        <v>124.8</v>
+      </c>
+      <c r="E4">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="F4">
+        <f>B4/D4</f>
+        <v>7.4705929487179494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>948</v>
+      </c>
+      <c r="C5">
+        <v>31.9</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>B5/D5</f>
+        <v>9.7731958762886606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440C178B-411D-4371-A2CD-92B262A87954}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.111</v>
+      </c>
+      <c r="E4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G4">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.1482</v>
+      </c>
+      <c r="E5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G5">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.41420000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>9.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.42</v>
+      </c>
+      <c r="G7">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0.246</v>
+      </c>
+      <c r="E8">
+        <v>2.24E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.41930000000000001</v>
+      </c>
+      <c r="G8">
+        <v>2.01E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="E9">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.4133</v>
+      </c>
+      <c r="G9">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>4.48E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E10">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.3997</v>
+      </c>
+      <c r="G10">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.38E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.3911</v>
+      </c>
+      <c r="G11">
+        <v>3.39E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.49E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B101D-FC92-4746-BA17-DE637DA28F82}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.151</v>
+      </c>
+      <c r="G3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>0.04</v>
+      </c>
+      <c r="F6">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E9C3D0-D02D-4FBF-98B9-B833C9968858}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.252</v>
+      </c>
+      <c r="F3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.126</v>
+      </c>
+      <c r="H3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.1077</v>
+      </c>
+      <c r="J3">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.15</v>
+      </c>
+      <c r="H5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I5">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.158</v>
+      </c>
+      <c r="H6">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.1038</v>
+      </c>
+      <c r="J6">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.223</v>
+      </c>
+      <c r="F7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.1203</v>
+      </c>
+      <c r="J7">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.22</v>
+      </c>
+      <c r="F8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.183</v>
+      </c>
+      <c r="H8">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="I9">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H10">
+        <v>6.13E-2</v>
+      </c>
+      <c r="I10">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.221</v>
+      </c>
+      <c r="F11">
+        <v>0.03</v>
+      </c>
+      <c r="G11">
+        <v>0.183</v>
+      </c>
+      <c r="H11">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.3377</v>
+      </c>
+      <c r="J13">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="J14">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="J15">
+        <v>4.19E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="J16">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="I17">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="J17">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="I18">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="J18">
+        <v>3.56E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>0.2918</v>
+      </c>
+      <c r="J19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="J20">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="J21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B138992-6987-4BD2-8951-F99467DF72CF}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.58E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.39</v>
+      </c>
+      <c r="F3">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="E4">
+        <v>0.61</v>
+      </c>
+      <c r="F4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>0.1875</v>
+      </c>
+      <c r="K4">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.16830000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5">
+        <v>0.62380000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.16719999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.2185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7">
+        <v>0.34079999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="K9">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="N9">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.622</v>
+      </c>
+      <c r="F11">
+        <v>0.115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F13">
+        <v>8.14E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>0.748</v>
+      </c>
+      <c r="K13">
+        <v>0.1804</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.35</v>
+      </c>
+      <c r="F14">
+        <v>0.23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>0.8397</v>
+      </c>
+      <c r="K14">
+        <v>0.1208</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="K15">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="F16">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="K16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F19">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="K19">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1453,34 +3312,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1690,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AF01F-548D-4000-80D2-2EA0C260B4A4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1698,19 +3557,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1906,22 +3765,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1935,15 +3794,15 @@
         <v>3.0330000000000001E-3</v>
       </c>
       <c r="D2">
-        <f>SQRT(C2)</f>
+        <f t="shared" ref="D2:D10" si="0">SQRT(C2)</f>
         <v>5.5072679252057458E-2</v>
       </c>
       <c r="E2">
-        <f>B2-D2</f>
+        <f t="shared" ref="E2:E10" si="1">B2-D2</f>
         <v>6.2927320747942536E-2</v>
       </c>
       <c r="F2">
-        <f>B2+D2</f>
+        <f t="shared" ref="F2:F10" si="2">B2+D2</f>
         <v>0.17307267925205744</v>
       </c>
     </row>
@@ -1958,15 +3817,15 @@
         <v>3.46E-3</v>
       </c>
       <c r="D3">
-        <f>SQRT(C3)</f>
+        <f t="shared" si="0"/>
         <v>5.8821764679410971E-2</v>
       </c>
       <c r="E3">
-        <f>B3-D3</f>
+        <f t="shared" si="1"/>
         <v>0.14447823532058904</v>
       </c>
       <c r="F3">
-        <f>B3+D3</f>
+        <f t="shared" si="2"/>
         <v>0.26212176467941095</v>
       </c>
     </row>
@@ -1981,15 +3840,15 @@
         <v>3.4770000000000001E-3</v>
       </c>
       <c r="D4">
-        <f>SQRT(C4)</f>
+        <f t="shared" si="0"/>
         <v>5.8966091951222273E-2</v>
       </c>
       <c r="E4">
-        <f>B4-D4</f>
+        <f t="shared" si="1"/>
         <v>0.24803390804877773</v>
       </c>
       <c r="F4">
-        <f>B4+D4</f>
+        <f t="shared" si="2"/>
         <v>0.36596609195122226</v>
       </c>
     </row>
@@ -2004,15 +3863,15 @@
         <v>3.397E-2</v>
       </c>
       <c r="D5">
-        <f>SQRT(C5)</f>
+        <f t="shared" si="0"/>
         <v>0.18430952227163958</v>
       </c>
       <c r="E5">
-        <f>B5-D5</f>
+        <f t="shared" si="1"/>
         <v>0.2226904777283604</v>
       </c>
       <c r="F5">
-        <f>B5+D5</f>
+        <f t="shared" si="2"/>
         <v>0.59130952227163958</v>
       </c>
     </row>
@@ -2027,15 +3886,15 @@
         <v>3.32E-3</v>
       </c>
       <c r="D6">
-        <f>SQRT(C6)</f>
+        <f t="shared" si="0"/>
         <v>5.7619441163551735E-2</v>
       </c>
       <c r="E6">
-        <f>B6-D6</f>
+        <f t="shared" si="1"/>
         <v>0.44838055883644828</v>
       </c>
       <c r="F6">
-        <f>B6+D6</f>
+        <f t="shared" si="2"/>
         <v>0.56361944116355178</v>
       </c>
     </row>
@@ -2050,15 +3909,15 @@
         <v>3.48E-3</v>
       </c>
       <c r="D7">
-        <f>SQRT(C7)</f>
+        <f t="shared" si="0"/>
         <v>5.89915248150105E-2</v>
       </c>
       <c r="E7">
-        <f>B7-D7</f>
+        <f t="shared" si="1"/>
         <v>0.54300847518498951</v>
       </c>
       <c r="F7">
-        <f>B7+D7</f>
+        <f t="shared" si="2"/>
         <v>0.66099152481501044</v>
       </c>
     </row>
@@ -2073,15 +3932,15 @@
         <v>3.3830000000000002E-3</v>
       </c>
       <c r="D8">
-        <f>SQRT(C8)</f>
+        <f t="shared" si="0"/>
         <v>5.8163562476863467E-2</v>
       </c>
       <c r="E8">
-        <f>B8-D8</f>
+        <f t="shared" si="1"/>
         <v>0.65083643752313647</v>
       </c>
       <c r="F8">
-        <f>B8+D8</f>
+        <f t="shared" si="2"/>
         <v>0.76716356247686346</v>
       </c>
     </row>
@@ -2096,15 +3955,15 @@
         <v>3.4039999999999999E-3</v>
       </c>
       <c r="D9">
-        <f>SQRT(C9)</f>
+        <f t="shared" si="0"/>
         <v>5.8343808583259285E-2</v>
       </c>
       <c r="E9">
-        <f>B9-D9</f>
+        <f t="shared" si="1"/>
         <v>0.74465619141674078</v>
       </c>
       <c r="F9">
-        <f>B9+D9</f>
+        <f t="shared" si="2"/>
         <v>0.86134380858325932</v>
       </c>
     </row>
@@ -2119,15 +3978,15 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="D10">
-        <f>SQRT(C10)</f>
+        <f t="shared" si="0"/>
         <v>5.1961524227066319E-2</v>
       </c>
       <c r="E10">
-        <f>B10-D10</f>
+        <f t="shared" si="1"/>
         <v>0.83353847577293361</v>
       </c>
       <c r="F10">
-        <f>B10+D10</f>
+        <f t="shared" si="2"/>
         <v>0.9374615242270663</v>
       </c>
     </row>
@@ -2148,13 +4007,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2218,28 +4077,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2380,6 +4239,2663 @@
       </c>
       <c r="H6">
         <v>0.93617297808495203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25814465-DB02-4A02-BCB3-0E4D779AF38A}">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2412</v>
+      </c>
+      <c r="G3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="I3">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.126</v>
+      </c>
+      <c r="K3">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="U3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.4254</v>
+      </c>
+      <c r="I4">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.1449</v>
+      </c>
+      <c r="K4">
+        <v>1.52E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="M4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>2.8839000000000001</v>
+      </c>
+      <c r="R4">
+        <v>88</v>
+      </c>
+      <c r="S4">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.8977000000000004</v>
+      </c>
+      <c r="U4">
+        <v>1.7769999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.1449</v>
+      </c>
+      <c r="K5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>3.347</v>
+      </c>
+      <c r="M5">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.8003999999999998</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="U5">
+        <v>1.4480999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>1E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.41930000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="K6">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.98</v>
+      </c>
+      <c r="M6">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>97.89</v>
+      </c>
+      <c r="O6">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="P6">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="Q6">
+        <v>2.9</v>
+      </c>
+      <c r="R6">
+        <v>91.67</v>
+      </c>
+      <c r="S6">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="T6">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="U6">
+        <v>1.0659000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>1E-4</v>
+      </c>
+      <c r="H7">
+        <v>0.4113</v>
+      </c>
+      <c r="I7">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.1487</v>
+      </c>
+      <c r="K7">
+        <v>1.34E-2</v>
+      </c>
+      <c r="L7">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="M7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N7">
+        <v>90.53</v>
+      </c>
+      <c r="O7">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="P7">
+        <v>4.2110000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>2.88</v>
+      </c>
+      <c r="R7">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="S7">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.6515</v>
+      </c>
+      <c r="U7">
+        <v>0.92910000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H8">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="I8">
+        <v>1.721E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.15037</v>
+      </c>
+      <c r="K8">
+        <v>1.41E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.488</v>
+      </c>
+      <c r="M8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N8">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="O8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>4.6840000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="R8">
+        <v>67.44</v>
+      </c>
+      <c r="S8">
+        <v>4.9349999999999998E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.482</v>
+      </c>
+      <c r="U8">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H9">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="I9">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.1492</v>
+      </c>
+      <c r="K9">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="M9">
+        <v>1.61E-2</v>
+      </c>
+      <c r="N9">
+        <v>81.25</v>
+      </c>
+      <c r="O9">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="P9">
+        <v>4.3109000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>2.81</v>
+      </c>
+      <c r="R9">
+        <v>53.16</v>
+      </c>
+      <c r="S9">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.619</v>
+      </c>
+      <c r="U9">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.583E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="H10">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="N10">
+        <v>82.35</v>
+      </c>
+      <c r="O10">
+        <v>4.58E-2</v>
+      </c>
+      <c r="P10">
+        <v>4.9180000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>2.835</v>
+      </c>
+      <c r="R10">
+        <v>60.23</v>
+      </c>
+      <c r="S10">
+        <v>4.99E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.528</v>
+      </c>
+      <c r="U10">
+        <v>0.79149999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>3.841E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>1E-4</v>
+      </c>
+      <c r="H11">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.77E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.1489</v>
+      </c>
+      <c r="K11">
+        <v>1.12E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>69.05</v>
+      </c>
+      <c r="O11">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="P11">
+        <v>4.3402000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>3.0286</v>
+      </c>
+      <c r="R11">
+        <v>56.47</v>
+      </c>
+      <c r="S11">
+        <v>4.99E-2</v>
+      </c>
+      <c r="T11">
+        <v>1.333</v>
+      </c>
+      <c r="U11">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1.959E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1.959E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8559F7-5447-43DE-AA9C-A62914C15C0D}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.1726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2011</v>
+      </c>
+      <c r="G3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="I3">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.1361</v>
+      </c>
+      <c r="K3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.7031000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="I4">
+        <v>2.41E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.448</v>
+      </c>
+      <c r="M4">
+        <v>4.7050000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5">
+        <v>0.4219</v>
+      </c>
+      <c r="I5">
+        <v>1.8669999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="K5">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>3.2162000000000002</v>
+      </c>
+      <c r="M5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>1E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.567E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.1472</v>
+      </c>
+      <c r="K6">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.9581</v>
+      </c>
+      <c r="M6">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>1E-4</v>
+      </c>
+      <c r="H7">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1.46E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.1482</v>
+      </c>
+      <c r="K7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.7587999999999999</v>
+      </c>
+      <c r="M7">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.7739999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.5199999999999997E-5</v>
+      </c>
+      <c r="H8">
+        <v>0.40373999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02</v>
+      </c>
+      <c r="J8">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.21E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.6448</v>
+      </c>
+      <c r="M8">
+        <v>1.7330000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.554E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.7800000000000002E-5</v>
+      </c>
+      <c r="H9">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="I9">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.1479</v>
+      </c>
+      <c r="K9">
+        <v>1.29E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.6046</v>
+      </c>
+      <c r="M9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.473E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.9499999999999998E-5</v>
+      </c>
+      <c r="H10">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.67E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.5893999999999999</v>
+      </c>
+      <c r="M10">
+        <v>1.559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>4.53E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439019C8-C292-4111-B5CD-802FC10C5AFB}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.1726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2011</v>
+      </c>
+      <c r="G3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="I3">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.1361</v>
+      </c>
+      <c r="K3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.7031000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="I4">
+        <v>2.41E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>3.448</v>
+      </c>
+      <c r="O4">
+        <v>4.7050000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5">
+        <v>0.4219</v>
+      </c>
+      <c r="I5">
+        <v>1.8669999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="K5">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.2162000000000002</v>
+      </c>
+      <c r="O5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>1E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.567E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.1472</v>
+      </c>
+      <c r="K6">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.9581</v>
+      </c>
+      <c r="O6">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>1E-4</v>
+      </c>
+      <c r="H7">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1.46E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.1482</v>
+      </c>
+      <c r="K7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N7">
+        <v>2.7587999999999999</v>
+      </c>
+      <c r="O7">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.7739999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.5199999999999997E-5</v>
+      </c>
+      <c r="H8">
+        <v>0.40373999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02</v>
+      </c>
+      <c r="J8">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.21E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.6448</v>
+      </c>
+      <c r="O8">
+        <v>1.7330000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.554E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.7800000000000002E-5</v>
+      </c>
+      <c r="H9">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="I9">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.1479</v>
+      </c>
+      <c r="K9">
+        <v>1.29E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.6046</v>
+      </c>
+      <c r="O9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>78</v>
+      </c>
+      <c r="E10">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.473E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.9499999999999998E-5</v>
+      </c>
+      <c r="H10">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.67E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.5893999999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.185</v>
+      </c>
+      <c r="N11">
+        <v>4.2923999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.20230000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.2</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>7.7</v>
+      </c>
+      <c r="E12">
+        <v>2.2179449E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.2412</v>
+      </c>
+      <c r="G12">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="I12">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N12">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="O12">
+        <v>0.1789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>71.7</v>
+      </c>
+      <c r="E13">
+        <v>1.4244683218660899E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="G13">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.4254</v>
+      </c>
+      <c r="I13">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.1449</v>
+      </c>
+      <c r="K13">
+        <v>1.52E-2</v>
+      </c>
+      <c r="L13">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="M13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.8936000000000002</v>
+      </c>
+      <c r="O13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>96.4</v>
+      </c>
+      <c r="E14">
+        <v>5.8910101001441104E-3</v>
+      </c>
+      <c r="F14">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>1E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="I14">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.1449</v>
+      </c>
+      <c r="K14">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>3.347</v>
+      </c>
+      <c r="M14">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N14">
+        <v>3.5674000000000001</v>
+      </c>
+      <c r="O14">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>98.4</v>
+      </c>
+      <c r="E15">
+        <v>4.5342033478881303E-3</v>
+      </c>
+      <c r="F15">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="G15">
+        <v>1E-4</v>
+      </c>
+      <c r="H15">
+        <v>0.41935</v>
+      </c>
+      <c r="I15">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="K15">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.98</v>
+      </c>
+      <c r="M15">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <v>3.1797</v>
+      </c>
+      <c r="O15">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1">
+        <v>95</v>
+      </c>
+      <c r="E16">
+        <v>1.26491106406735E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.02</v>
+      </c>
+      <c r="G16">
+        <v>1E-4</v>
+      </c>
+      <c r="H16">
+        <v>0.4113</v>
+      </c>
+      <c r="I16">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.1487</v>
+      </c>
+      <c r="K16">
+        <v>1.34E-2</v>
+      </c>
+      <c r="L16">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="M16">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="O16">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>1.17645942486413E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H17">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="I17">
+        <v>1.721E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.15037</v>
+      </c>
+      <c r="K17">
+        <v>1.41E-2</v>
+      </c>
+      <c r="L17">
+        <v>2.488</v>
+      </c>
+      <c r="M17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="O17">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="E18">
+        <v>1.26491106406735E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.5689999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H18">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="I18">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.1492</v>
+      </c>
+      <c r="K18">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="L18">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.61E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.6004</v>
+      </c>
+      <c r="O18">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>9.4651314562318005E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.583E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="H19">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="K19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L19">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="M19">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>2.5876000000000001</v>
+      </c>
+      <c r="O19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.151</v>
+      </c>
+      <c r="G21">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>0.04</v>
+      </c>
+      <c r="F23">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>81</v>
+      </c>
+      <c r="E27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F27">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F28">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G28">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
